--- a/Contacts.xlsx
+++ b/Contacts.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,13 +11,33 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Brodevil</t>
+  </si>
+  <si>
+    <t>brodevil89@gmail.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,13 +45,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -43,17 +86,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,36 +397,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Contacts.xlsx
+++ b/Contacts.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -31,6 +29,12 @@
   </si>
   <si>
     <t>brodevil89@gmail.com</t>
+  </si>
+  <si>
+    <t>PersonName</t>
+  </si>
+  <si>
+    <t>youremail@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -398,14 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -428,39 +433,29 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>91</v>
+      <c r="C3" t="str">
+        <f>"+91 9937829503"</f>
+        <v>+91 9937829503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="str">
+        <f>"+91 8979879879"</f>
+        <v>+91 8979879879</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Contacts.xlsx
+++ b/Contacts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -25,16 +25,31 @@
     <t>Phone Number</t>
   </si>
   <si>
-    <t>Brodevil</t>
-  </si>
-  <si>
-    <t>brodevil89@gmail.com</t>
-  </si>
-  <si>
-    <t>PersonName</t>
-  </si>
-  <si>
     <t>youremail@gmail.com</t>
+  </si>
+  <si>
+    <t>Person Name</t>
+  </si>
+  <si>
+    <t>+91 898398897</t>
+  </si>
+  <si>
+    <t>Another Person</t>
+  </si>
+  <si>
+    <t>personemail@gmail.com</t>
+  </si>
+  <si>
+    <t>+1 9087098</t>
+  </si>
+  <si>
+    <t>Your contact person</t>
+  </si>
+  <si>
+    <t>hisemail@gmail.com</t>
+  </si>
+  <si>
+    <t>if you not have email or phone</t>
   </si>
 </sst>
 </file>
@@ -67,7 +82,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -77,6 +92,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -94,12 +115,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -402,17 +425,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -426,36 +449,56 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="str">
-        <f>"+91 9937829503"</f>
-        <v>+91 9937829503</v>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="str">
-        <f>"+91 8979879879"</f>
-        <v>+91 8979879879</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>189088900</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Contacts.xlsx
+++ b/Contacts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>hisemail@gmail.com</t>
-  </si>
-  <si>
-    <t>if you not have email or phone</t>
   </si>
 </sst>
 </file>
@@ -425,16 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="1" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -482,14 +478,6 @@
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>189088900</v>
       </c>
     </row>
   </sheetData>

--- a/Contacts.xlsx
+++ b/Contacts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -40,13 +40,31 @@
     <t>personemail@gmail.com</t>
   </si>
   <si>
-    <t>+1 9087098</t>
-  </si>
-  <si>
-    <t>Your contact person</t>
+    <t>Third Person</t>
+  </si>
+  <si>
+    <t>email@gmail.com</t>
+  </si>
+  <si>
+    <t>+91 202934880</t>
+  </si>
+  <si>
+    <t>Forth Person</t>
   </si>
   <si>
     <t>hisemail@gmail.com</t>
+  </si>
+  <si>
+    <t>+91 238907 234</t>
+  </si>
+  <si>
+    <t>Fifth person</t>
+  </si>
+  <si>
+    <t>heremail@gmail.com</t>
+  </si>
+  <si>
+    <t>+1 238974293</t>
   </si>
 </sst>
 </file>
@@ -422,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,16 +486,39 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -485,8 +526,10 @@
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId6"/>
 </worksheet>
 </file>